--- a/config_4.27/game_module_config.xlsx
+++ b/config_4.27/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,6 +3196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,6 +3207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3461,6 +3529,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3470,7 +3539,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3479,6 +3548,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3559,6 +3629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3569,6 +3640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3692,6 +3764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3702,6 +3775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3840,14 +3914,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3859,36 +3927,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3896,19 +3967,20 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3920,171 +3992,36 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4099,13 +4036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4127,194 +4064,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4337,255 +4088,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4615,16 +4124,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4745,63 +4254,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5059,20 +4524,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I325" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I344" sqref="I344"/>
+      <selection pane="bottomRight" activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5088,7 +4552,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +4581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6441,7 +5905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6623,7 +6087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6987,7 +6451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7039,7 +6503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8157,7 +7621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9727,7 +9191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9751,7 +9215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9775,7 +9239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10797,7 +10261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10820,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10843,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10866,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10889,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10912,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10935,7 +10399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10958,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10981,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11551,7 +11015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11577,7 +11041,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11603,7 +11067,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11629,7 +11093,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11655,7 +11119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11733,7 +11197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11759,7 +11223,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11785,7 +11249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11811,7 +11275,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11837,7 +11301,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11863,7 +11327,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12051,7 +11515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12077,7 +11541,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12100,7 +11564,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12254,7 +11718,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12280,7 +11744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12332,7 +11796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12358,7 +11822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12384,7 +11848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12410,7 +11874,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12436,7 +11900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12462,7 +11926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12488,7 +11952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12514,7 +11978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12540,7 +12004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12566,7 +12030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12670,7 +12134,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12696,7 +12160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12722,7 +12186,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12748,7 +12212,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12774,7 +12238,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12800,7 +12264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12826,7 +12290,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12852,7 +12316,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12878,7 +12342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12904,7 +12368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12930,7 +12394,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12956,7 +12420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12970,19 +12434,19 @@
         <v>910</v>
       </c>
       <c r="E310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="32" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13008,7 +12472,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13031,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13057,7 +12521,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13083,7 +12547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13109,7 +12573,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13135,7 +12599,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13158,7 +12622,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13181,7 +12645,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13204,7 +12668,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13227,7 +12691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13250,7 +12714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13276,7 +12740,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13300,7 +12764,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13326,7 +12790,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13349,7 +12813,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13378,7 +12842,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13404,7 +12868,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13430,7 +12894,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13456,7 +12920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13684,7 +13148,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="339" ht="15.75" spans="1:9">
+    <row r="339" spans="1:9" ht="15.75">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -13711,39 +13175,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H338">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H338"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_4.27/game_module_config.xlsx
+++ b/config_4.27/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1002">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3897,9 +3897,6 @@
     <t>秒杀礼包</t>
   </si>
   <si>
-    <t>Act_040_MSLBManager</t>
-  </si>
-  <si>
     <t>5月10日23:59:59</t>
   </si>
   <si>
@@ -3909,6 +3906,18 @@
 CheckIsShow 检查是否显示活动入口
 GotoUI 根据参数显示活动的界面
 </t>
+  </si>
+  <si>
+    <t>Act_040_MSLBManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4530,13 +4539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D296" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J310" sqref="J310"/>
+      <selection pane="bottomRight" activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13159,19 +13168,42 @@
         <v>996</v>
       </c>
       <c r="D339" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
         <v>997</v>
       </c>
-      <c r="E339">
-        <v>1</v>
-      </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-      <c r="I339" t="s">
-        <v>998</v>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="13">
+        <v>339</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="I340" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -13198,7 +13230,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_4.27/game_module_config.xlsx
+++ b/config_4.27/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="999">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3880,15 +3880,6 @@
   </si>
   <si>
     <t>2021年4月19日 23:59:59</t>
-  </si>
-  <si>
-    <t>act_027_jqshl_style/act_027_style_002</t>
-  </si>
-  <si>
-    <t>欢乐豪礼</t>
-  </si>
-  <si>
-    <t>充值消耗模板皮肤配置，永久</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -4539,13 +4530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I340" sqref="I340"/>
+      <selection pane="bottomRight" activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13138,37 +13129,37 @@
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="50" t="s">
         <v>992</v>
       </c>
-      <c r="C338" s="45" t="s">
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="E338" s="5">
-        <v>1</v>
-      </c>
-      <c r="F338" s="5">
-        <v>1</v>
-      </c>
-      <c r="G338" s="5">
-        <v>1</v>
-      </c>
-      <c r="I338" s="32" t="s">
+      <c r="D338" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="15.75">
-      <c r="A339" s="5">
+    <row r="339" spans="1:9">
+      <c r="A339" s="13">
         <v>338</v>
       </c>
-      <c r="B339" s="50" t="s">
-        <v>995</v>
+      <c r="B339" s="8" t="s">
+        <v>997</v>
       </c>
       <c r="C339" t="s">
-        <v>996</v>
-      </c>
-      <c r="D339" s="51" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13180,34 +13171,11 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
-      <c r="A340" s="13">
-        <v>339</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E340">
-        <v>1</v>
-      </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-      <c r="I340" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H338"/>
+  <autoFilter ref="A1:H337"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13230,7 +13198,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_4.27/game_module_config.xlsx
+++ b/config_4.27/game_module_config.xlsx
@@ -3678,49 +3678,28 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（铁锤）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t xml:space="preserve">act_ty_by_drop_style/act_015_gongju </t>
-  </si>
-  <si>
     <t>活动boss皮肤（铁锤）</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_normal_001</t>
-  </si>
-  <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
-    <t>act_045_xxlbd</t>
-  </si>
-  <si>
     <t>消消乐争霸</t>
   </si>
   <si>
     <t>Act_045_XXLBDManger</t>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
     <t>通用礼包皮肤</t>
@@ -3852,9 +3831,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3908,6 +3884,38 @@
   </si>
   <si>
     <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_015_gongju</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4533,10 +4541,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B342" sqref="B342"/>
+      <selection pane="bottomRight" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12604,22 +12612,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
+        <v>992</v>
+      </c>
+      <c r="C317" s="36" t="s">
         <v>931</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="36" t="s">
         <v>932</v>
-      </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="36" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="6" customFormat="1">
@@ -12627,10 +12635,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -12642,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="6" customFormat="1">
@@ -12650,10 +12658,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>936</v>
+        <v>993</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -12665,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="6" customFormat="1">
@@ -12673,10 +12681,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="44" t="s">
-        <v>938</v>
+        <v>994</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -12696,10 +12704,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>940</v>
+        <v>995</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -12719,13 +12727,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>942</v>
+        <v>996</v>
       </c>
       <c r="C322" s="36" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D322" s="43" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -12745,10 +12753,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>945</v>
+        <v>997</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -12769,13 +12777,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -12795,10 +12803,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -12818,13 +12826,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -12836,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>927</v>
@@ -12847,13 +12855,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C327" s="45" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -12865,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="32" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="5" customFormat="1">
@@ -12873,13 +12881,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C328" s="45" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="D328" s="33" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -12891,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="32" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="5" customFormat="1">
@@ -12899,13 +12907,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -12925,13 +12933,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C330" s="45" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -12951,13 +12959,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C331" s="45" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D331" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -12977,13 +12985,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C332" s="45" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D332" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13003,13 +13011,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C333" s="45" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="E333" s="5">
         <v>1</v>
@@ -13021,7 +13029,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13029,13 +13037,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C334" s="45" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13047,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13055,10 +13063,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13070,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13078,13 +13086,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C336" s="45" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13104,13 +13112,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C337" s="45" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13122,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13130,13 +13138,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C338" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D338" s="51" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13148,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13156,10 +13164,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C339" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13171,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -13198,7 +13206,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
